--- a/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>AVAL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,91 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
-        <v>42369</v>
-      </c>
       <c r="H7" s="2">
-        <v>42094</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>44469</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="J7" s="2">
+        <v>44286</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>999600</v>
+        <v>1094700</v>
       </c>
       <c r="E8" s="3">
-        <v>728700</v>
+        <v>900200</v>
       </c>
       <c r="F8" s="3">
-        <v>1143600</v>
+        <v>789600</v>
       </c>
       <c r="G8" s="3">
-        <v>1413100</v>
+        <v>1086400</v>
       </c>
       <c r="H8" s="3">
-        <v>645000</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+        <v>675100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>660300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>653500</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +777,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,66 +887,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-218900</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>12500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>56800</v>
+        <v>-56900</v>
       </c>
       <c r="E15" s="3">
-        <v>55300</v>
+        <v>-56800</v>
       </c>
       <c r="F15" s="3">
-        <v>78000</v>
+        <v>-55300</v>
       </c>
       <c r="G15" s="3">
-        <v>52700</v>
+        <v>-78000</v>
       </c>
       <c r="H15" s="3">
-        <v>25200</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+        <v>-54600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-52900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>526600</v>
+        <v>813200</v>
       </c>
       <c r="E17" s="3">
-        <v>458600</v>
+        <v>604600</v>
       </c>
       <c r="F17" s="3">
-        <v>814400</v>
+        <v>498700</v>
       </c>
       <c r="G17" s="3">
-        <v>491900</v>
+        <v>608400</v>
       </c>
       <c r="H17" s="3">
-        <v>241800</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+        <v>347600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>387300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>404100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>472900</v>
+        <v>281500</v>
       </c>
       <c r="E18" s="3">
-        <v>270000</v>
+        <v>295600</v>
       </c>
       <c r="F18" s="3">
-        <v>329100</v>
+        <v>290900</v>
       </c>
       <c r="G18" s="3">
-        <v>921200</v>
+        <v>478000</v>
       </c>
       <c r="H18" s="3">
-        <v>403100</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+        <v>327600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>273000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>249400</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1042,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-63400</v>
+        <v>28800</v>
       </c>
       <c r="E20" s="3">
-        <v>153400</v>
+        <v>114000</v>
       </c>
       <c r="F20" s="3">
-        <v>65000</v>
+        <v>132500</v>
       </c>
       <c r="G20" s="3">
-        <v>245500</v>
+        <v>-83900</v>
       </c>
       <c r="H20" s="3">
-        <v>94900</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>55900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>91300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>81900</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>367200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>466400</v>
       </c>
       <c r="F21" s="3">
-        <v>697800</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+        <v>478700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>472100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>460400</v>
+      </c>
+      <c r="I21" s="3">
+        <v>438200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>406100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>649100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>270900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>310300</v>
+      </c>
+      <c r="E23" s="3">
         <v>409600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>423400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>394100</v>
       </c>
-      <c r="G23" s="3">
-        <v>517600</v>
-      </c>
       <c r="H23" s="3">
-        <v>227200</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+        <v>383400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>364300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>331300</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E24" s="3">
         <v>118500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>132900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>122900</v>
       </c>
-      <c r="G24" s="3">
-        <v>171300</v>
-      </c>
       <c r="H24" s="3">
-        <v>96300</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+        <v>212500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>92500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>103300</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E26" s="3">
         <v>291100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>290500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>271200</v>
       </c>
-      <c r="G26" s="3">
-        <v>346300</v>
-      </c>
       <c r="H26" s="3">
-        <v>130900</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+        <v>171000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>271800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>228000</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E27" s="3">
         <v>141900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>132600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>163100</v>
       </c>
-      <c r="G27" s="3">
-        <v>200300</v>
-      </c>
       <c r="H27" s="3">
-        <v>77000</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+        <v>106600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>138700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>204000</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1278,28 +1340,31 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>230600</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="H29" s="3">
+        <v>57200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>60700</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-37700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>63400</v>
+        <v>-28800</v>
       </c>
       <c r="E32" s="3">
-        <v>-153400</v>
+        <v>-114000</v>
       </c>
       <c r="F32" s="3">
-        <v>-65000</v>
+        <v>-132500</v>
       </c>
       <c r="G32" s="3">
-        <v>-245500</v>
+        <v>83900</v>
       </c>
       <c r="H32" s="3">
-        <v>-94900</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-55900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-91300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-81900</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E33" s="3">
         <v>141900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>363200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>163100</v>
       </c>
-      <c r="G33" s="3">
-        <v>200300</v>
-      </c>
       <c r="H33" s="3">
-        <v>77000</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+        <v>163700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>199400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>166300</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E35" s="3">
         <v>141900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>363200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>163100</v>
       </c>
-      <c r="G35" s="3">
-        <v>200300</v>
-      </c>
       <c r="H35" s="3">
-        <v>77000</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+        <v>163700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>199400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>166300</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
-        <v>42369</v>
-      </c>
       <c r="H38" s="2">
-        <v>42094</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
+        <v>44469</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44286</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,66 +1619,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>3782900</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>4502600</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>3445500</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>7695000</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>7537400</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>7478900</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>7377700</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>9261500</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>8951900</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>8704700</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>11696000</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>11278200</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
+        <v>11196400</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>10964900</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1619,8 +1713,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,8 +1745,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1677,8 +1777,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1706,95 +1809,107 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>1153700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>1025200</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>914900</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>246300</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>226200</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>222000</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>203600</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1496400</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1479200</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>1470700</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>1911100</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>1855100</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>1863500</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1891300</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>3525700</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>3367600</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>3201800</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>4508900</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>4320600</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>4199400</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>4064600</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +1969,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>28900</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>30400</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>30900</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>414500</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>30300</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>26300</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>52600</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,37 +2033,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>60038200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>57983300</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>54836100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>77049800</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>73858100</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>72292900</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>70751400</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,37 +2095,41 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>537700</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>536200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>498700</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>677900</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>612100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>596400</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>572900</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,37 +2157,43 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>1228200</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>1152600</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>1136200</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>1319600</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>1246800</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>1332200</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2080,66 +2221,75 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>12401200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>12212300</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>10840600</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>13148100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>11639000</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>11352000</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>11073300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>328400</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>326800</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>344700</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>1279500</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>332900</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>332700</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>339500</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,37 +2381,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>56517200</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>54535100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>51427700</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>72217000</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>69166900</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>67787200</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>66472500</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,37 +2555,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>1753700</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>1668300</v>
       </c>
       <c r="F72" s="3">
-        <v>0</v>
+        <v>1778700</v>
       </c>
       <c r="G72" s="3">
-        <v>0</v>
+        <v>2810500</v>
       </c>
       <c r="H72" s="3">
-        <v>0</v>
+        <v>2651500</v>
       </c>
       <c r="I72" s="3">
-        <v>0</v>
+        <v>2486200</v>
       </c>
       <c r="J72" s="3">
-        <v>0</v>
+        <v>2287600</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,37 +2683,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>3521000</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>3448200</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>3408400</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>4832900</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>4691200</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>4505700</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>4279000</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
-        <v>42369</v>
-      </c>
       <c r="H80" s="2">
-        <v>42094</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
+        <v>44469</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="J80" s="2">
+        <v>44286</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>85700</v>
+      </c>
+      <c r="E81" s="3">
         <v>141900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>363200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>163100</v>
       </c>
-      <c r="G81" s="3">
-        <v>200300</v>
-      </c>
       <c r="H81" s="3">
-        <v>77000</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+        <v>163700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>199400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>166300</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>56900</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>56900</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>55300</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>78000</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>77000</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>73900</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>74800</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-279700</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>1242300</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-428200</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>433500</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-20700</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>505500</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>321100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-31500</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-22700</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-12100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-62500</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-36500</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-24200</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-16300</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>290500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>38700</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-3641200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-457500</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>64100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-178900</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-814100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,37 +3212,41 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-23100</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-63000</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-63100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-63000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-62900</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-69500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3338,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-996800</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-223000</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-78500</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-16200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-55000</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-229100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>266400</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-101600</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>197800</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>70200</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>707700</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-719700</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>1057100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-4249500</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>157600</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>58500</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>101100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>232400</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>AVAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,100 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>1094700</v>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E8" s="3">
-        <v>900200</v>
+        <v>1351600</v>
       </c>
       <c r="F8" s="3">
-        <v>789600</v>
+        <v>1146900</v>
       </c>
       <c r="G8" s="3">
-        <v>1086400</v>
+        <v>943100</v>
       </c>
       <c r="H8" s="3">
-        <v>675100</v>
+        <v>827200</v>
       </c>
       <c r="I8" s="3">
+        <v>530400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>707300</v>
+      </c>
+      <c r="K8" s="3">
         <v>660300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>653500</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -780,8 +789,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +827,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +847,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +881,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +919,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,46 +951,58 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-56900</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
-        <v>-56800</v>
+        <v>-62900</v>
       </c>
       <c r="F15" s="3">
-        <v>-55300</v>
+        <v>-59600</v>
       </c>
       <c r="G15" s="3">
-        <v>-78000</v>
+        <v>-59600</v>
       </c>
       <c r="H15" s="3">
-        <v>-54600</v>
+        <v>-57900</v>
       </c>
       <c r="I15" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-57200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-52400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-52900</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1012,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>813200</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>604600</v>
+        <v>1106900</v>
       </c>
       <c r="F17" s="3">
-        <v>498700</v>
+        <v>851900</v>
       </c>
       <c r="G17" s="3">
-        <v>608400</v>
+        <v>633400</v>
       </c>
       <c r="H17" s="3">
-        <v>347600</v>
+        <v>522400</v>
       </c>
       <c r="I17" s="3">
+        <v>230800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>364100</v>
+      </c>
+      <c r="K17" s="3">
         <v>387300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>404100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>281500</v>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>295600</v>
+        <v>244700</v>
       </c>
       <c r="F18" s="3">
-        <v>290900</v>
+        <v>294900</v>
       </c>
       <c r="G18" s="3">
-        <v>478000</v>
+        <v>309700</v>
       </c>
       <c r="H18" s="3">
-        <v>327600</v>
+        <v>304700</v>
       </c>
       <c r="I18" s="3">
+        <v>299700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>343200</v>
+      </c>
+      <c r="K18" s="3">
         <v>273000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>249400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,72 +1104,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>28800</v>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>114000</v>
+        <v>-62000</v>
       </c>
       <c r="F20" s="3">
-        <v>132500</v>
+        <v>30100</v>
       </c>
       <c r="G20" s="3">
-        <v>-83900</v>
+        <v>119400</v>
       </c>
       <c r="H20" s="3">
-        <v>55900</v>
+        <v>138800</v>
       </c>
       <c r="I20" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>58500</v>
+      </c>
+      <c r="K20" s="3">
         <v>91300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>81900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>367200</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>466400</v>
+        <v>245500</v>
       </c>
       <c r="F21" s="3">
-        <v>478700</v>
+        <v>384600</v>
       </c>
       <c r="G21" s="3">
-        <v>472100</v>
+        <v>488600</v>
       </c>
       <c r="H21" s="3">
-        <v>460400</v>
+        <v>501500</v>
       </c>
       <c r="I21" s="3">
+        <v>351500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>482300</v>
+      </c>
+      <c r="K21" s="3">
         <v>438200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>406100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1133,78 +1208,96 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>310300</v>
+        <v>347600</v>
       </c>
       <c r="E23" s="3">
-        <v>409600</v>
+        <v>182600</v>
       </c>
       <c r="F23" s="3">
-        <v>423400</v>
+        <v>325100</v>
       </c>
       <c r="G23" s="3">
-        <v>394100</v>
+        <v>429100</v>
       </c>
       <c r="H23" s="3">
-        <v>383400</v>
+        <v>443600</v>
       </c>
       <c r="I23" s="3">
+        <v>269800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>401700</v>
+      </c>
+      <c r="K23" s="3">
         <v>364300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>331300</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115000</v>
+        <v>117200</v>
       </c>
       <c r="E24" s="3">
-        <v>118500</v>
+        <v>115800</v>
       </c>
       <c r="F24" s="3">
-        <v>132900</v>
+        <v>120500</v>
       </c>
       <c r="G24" s="3">
-        <v>122900</v>
+        <v>124100</v>
       </c>
       <c r="H24" s="3">
-        <v>212500</v>
+        <v>139200</v>
       </c>
       <c r="I24" s="3">
+        <v>83500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>222600</v>
+      </c>
+      <c r="K24" s="3">
         <v>92500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>103300</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1328,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>195300</v>
+      <c r="D26" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E26" s="3">
-        <v>291100</v>
+        <v>66900</v>
       </c>
       <c r="F26" s="3">
-        <v>290500</v>
+        <v>204500</v>
       </c>
       <c r="G26" s="3">
-        <v>271200</v>
+        <v>304900</v>
       </c>
       <c r="H26" s="3">
-        <v>171000</v>
+        <v>304300</v>
       </c>
       <c r="I26" s="3">
+        <v>186300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>179100</v>
+      </c>
+      <c r="K26" s="3">
         <v>271800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>228000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>85700</v>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E27" s="3">
-        <v>141900</v>
+        <v>87700</v>
       </c>
       <c r="F27" s="3">
-        <v>132600</v>
+        <v>89800</v>
       </c>
       <c r="G27" s="3">
-        <v>163100</v>
+        <v>148600</v>
       </c>
       <c r="H27" s="3">
-        <v>106600</v>
+        <v>139000</v>
       </c>
       <c r="I27" s="3">
+        <v>33900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>111600</v>
+      </c>
+      <c r="K27" s="3">
         <v>138700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>204000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,40 +1442,52 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-181700</v>
       </c>
       <c r="F29" s="3">
-        <v>230600</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>57200</v>
+        <v>241600</v>
       </c>
       <c r="I29" s="3">
+        <v>-66900</v>
+      </c>
+      <c r="J29" s="3">
+        <v>59900</v>
+      </c>
+      <c r="K29" s="3">
         <v>60700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-37700</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1518,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,72 +1556,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-28800</v>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>-114000</v>
+        <v>62000</v>
       </c>
       <c r="F32" s="3">
-        <v>-132500</v>
+        <v>-30100</v>
       </c>
       <c r="G32" s="3">
-        <v>83900</v>
+        <v>-119400</v>
       </c>
       <c r="H32" s="3">
-        <v>-55900</v>
+        <v>-138800</v>
       </c>
       <c r="I32" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-91300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-81900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>85700</v>
+      <c r="D33" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E33" s="3">
-        <v>141900</v>
+        <v>-94000</v>
       </c>
       <c r="F33" s="3">
-        <v>363200</v>
+        <v>89800</v>
       </c>
       <c r="G33" s="3">
-        <v>163100</v>
+        <v>148600</v>
       </c>
       <c r="H33" s="3">
-        <v>163700</v>
+        <v>380500</v>
       </c>
       <c r="I33" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>171500</v>
+      </c>
+      <c r="K33" s="3">
         <v>199400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>166300</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1670,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>85700</v>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E35" s="3">
-        <v>141900</v>
+        <v>-94000</v>
       </c>
       <c r="F35" s="3">
-        <v>363200</v>
+        <v>89800</v>
       </c>
       <c r="G35" s="3">
-        <v>163100</v>
+        <v>148600</v>
       </c>
       <c r="H35" s="3">
-        <v>163700</v>
+        <v>380500</v>
       </c>
       <c r="I35" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>171500</v>
+      </c>
+      <c r="K35" s="3">
         <v>199400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>166300</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1771,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,72 +1787,86 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3782900</v>
+        <v>4252100</v>
       </c>
       <c r="E41" s="3">
-        <v>4502600</v>
+        <v>3747200</v>
       </c>
       <c r="F41" s="3">
-        <v>3445500</v>
+        <v>3963100</v>
       </c>
       <c r="G41" s="3">
-        <v>7695000</v>
+        <v>4717000</v>
       </c>
       <c r="H41" s="3">
-        <v>7537400</v>
+        <v>3609600</v>
       </c>
       <c r="I41" s="3">
+        <v>8061400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7896300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7478900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>7377700</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9261500</v>
+        <v>10029700</v>
       </c>
       <c r="E42" s="3">
-        <v>8951900</v>
+        <v>10018100</v>
       </c>
       <c r="F42" s="3">
-        <v>8704700</v>
+        <v>9702500</v>
       </c>
       <c r="G42" s="3">
-        <v>11696000</v>
+        <v>9378200</v>
       </c>
       <c r="H42" s="3">
-        <v>11278200</v>
+        <v>9119200</v>
       </c>
       <c r="I42" s="3">
+        <v>12253000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>11815200</v>
+      </c>
+      <c r="K42" s="3">
         <v>11196400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>10964900</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1716,8 +1897,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,8 +1935,14 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1780,8 +1973,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1812,104 +2011,128 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1153700</v>
+        <v>262100</v>
       </c>
       <c r="E47" s="3">
-        <v>1025200</v>
+        <v>313100</v>
       </c>
       <c r="F47" s="3">
-        <v>914900</v>
+        <v>1208600</v>
       </c>
       <c r="G47" s="3">
-        <v>246300</v>
+        <v>1074000</v>
       </c>
       <c r="H47" s="3">
-        <v>226200</v>
+        <v>958500</v>
       </c>
       <c r="I47" s="3">
+        <v>258000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>236900</v>
+      </c>
+      <c r="K47" s="3">
         <v>222000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>203600</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1496400</v>
+        <v>1594500</v>
       </c>
       <c r="E48" s="3">
-        <v>1479200</v>
+        <v>1591800</v>
       </c>
       <c r="F48" s="3">
-        <v>1470700</v>
+        <v>1567700</v>
       </c>
       <c r="G48" s="3">
-        <v>1911100</v>
+        <v>1549600</v>
       </c>
       <c r="H48" s="3">
-        <v>1855100</v>
+        <v>1540800</v>
       </c>
       <c r="I48" s="3">
+        <v>2002100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1943400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1863500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1891300</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3525700</v>
+        <v>3927200</v>
       </c>
       <c r="E49" s="3">
-        <v>3367600</v>
+        <v>3856800</v>
       </c>
       <c r="F49" s="3">
-        <v>3201800</v>
+        <v>3693600</v>
       </c>
       <c r="G49" s="3">
-        <v>4508900</v>
+        <v>3528000</v>
       </c>
       <c r="H49" s="3">
-        <v>4320600</v>
+        <v>3354200</v>
       </c>
       <c r="I49" s="3">
+        <v>4723600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4526400</v>
+      </c>
+      <c r="K49" s="3">
         <v>4199400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4064600</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2163,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,40 +2201,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28900</v>
+        <v>22000</v>
       </c>
       <c r="E52" s="3">
-        <v>30400</v>
+        <v>427700</v>
       </c>
       <c r="F52" s="3">
-        <v>30900</v>
+        <v>30300</v>
       </c>
       <c r="G52" s="3">
-        <v>414500</v>
+        <v>31900</v>
       </c>
       <c r="H52" s="3">
-        <v>30300</v>
+        <v>32400</v>
       </c>
       <c r="I52" s="3">
+        <v>434200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K52" s="3">
         <v>26300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>52600</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2277,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60038200</v>
+        <v>65753200</v>
       </c>
       <c r="E54" s="3">
-        <v>57983300</v>
+        <v>65030100</v>
       </c>
       <c r="F54" s="3">
-        <v>54836100</v>
+        <v>62897200</v>
       </c>
       <c r="G54" s="3">
-        <v>77049800</v>
+        <v>60744400</v>
       </c>
       <c r="H54" s="3">
-        <v>73858100</v>
+        <v>57447300</v>
       </c>
       <c r="I54" s="3">
+        <v>80718900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>77375100</v>
+      </c>
+      <c r="K54" s="3">
         <v>72292900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>70751400</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2335,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,40 +2351,48 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>537700</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
-        <v>536200</v>
+        <v>616800</v>
       </c>
       <c r="F57" s="3">
-        <v>498700</v>
+        <v>563300</v>
       </c>
       <c r="G57" s="3">
-        <v>677900</v>
+        <v>561700</v>
       </c>
       <c r="H57" s="3">
-        <v>612100</v>
+        <v>522400</v>
       </c>
       <c r="I57" s="3">
+        <v>710200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>641300</v>
+      </c>
+      <c r="K57" s="3">
         <v>596400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>572900</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2160,40 +2423,52 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1228200</v>
+        <v>1224100</v>
       </c>
       <c r="E59" s="3">
-        <v>1152600</v>
+        <v>205600</v>
       </c>
       <c r="F59" s="3">
-        <v>1136200</v>
+        <v>1286700</v>
       </c>
       <c r="G59" s="3">
-        <v>339000</v>
+        <v>1207500</v>
       </c>
       <c r="H59" s="3">
-        <v>1319600</v>
+        <v>1190300</v>
       </c>
       <c r="I59" s="3">
+        <v>355100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1382400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1246800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1332200</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2224,72 +2499,90 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12401200</v>
+        <v>15408500</v>
       </c>
       <c r="E61" s="3">
-        <v>12212300</v>
+        <v>13866300</v>
       </c>
       <c r="F61" s="3">
-        <v>10840600</v>
+        <v>12991700</v>
       </c>
       <c r="G61" s="3">
-        <v>13148100</v>
+        <v>12793800</v>
       </c>
       <c r="H61" s="3">
-        <v>11639000</v>
+        <v>11356900</v>
       </c>
       <c r="I61" s="3">
+        <v>13774200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12193300</v>
+      </c>
+      <c r="K61" s="3">
         <v>11352000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>11073300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>328400</v>
+        <v>446400</v>
       </c>
       <c r="E62" s="3">
-        <v>326800</v>
+        <v>1486000</v>
       </c>
       <c r="F62" s="3">
-        <v>344700</v>
+        <v>344000</v>
       </c>
       <c r="G62" s="3">
-        <v>1279500</v>
+        <v>342400</v>
       </c>
       <c r="H62" s="3">
-        <v>332900</v>
+        <v>361100</v>
       </c>
       <c r="I62" s="3">
+        <v>1340400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>348700</v>
+      </c>
+      <c r="K62" s="3">
         <v>332700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>339500</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2613,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2651,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2689,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>56517200</v>
+        <v>62194500</v>
       </c>
       <c r="E66" s="3">
-        <v>54535100</v>
+        <v>61407300</v>
       </c>
       <c r="F66" s="3">
-        <v>51427700</v>
+        <v>59208500</v>
       </c>
       <c r="G66" s="3">
-        <v>72217000</v>
+        <v>57132000</v>
       </c>
       <c r="H66" s="3">
-        <v>69166900</v>
+        <v>53876600</v>
       </c>
       <c r="I66" s="3">
+        <v>75655900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>72460600</v>
+      </c>
+      <c r="K66" s="3">
         <v>67787200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>66472500</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2747,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2781,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2819,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2857,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2895,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1753700</v>
+        <v>1634300</v>
       </c>
       <c r="E72" s="3">
-        <v>1668300</v>
+        <v>1764100</v>
       </c>
       <c r="F72" s="3">
-        <v>1778700</v>
+        <v>1837200</v>
       </c>
       <c r="G72" s="3">
-        <v>2810500</v>
+        <v>1747700</v>
       </c>
       <c r="H72" s="3">
-        <v>2651500</v>
+        <v>1863400</v>
       </c>
       <c r="I72" s="3">
+        <v>2944300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>2777700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2486200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2287600</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2971,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3009,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3047,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3521000</v>
+        <v>3558700</v>
       </c>
       <c r="E76" s="3">
-        <v>3448200</v>
+        <v>3622700</v>
       </c>
       <c r="F76" s="3">
-        <v>3408400</v>
+        <v>3688600</v>
       </c>
       <c r="G76" s="3">
-        <v>4832900</v>
+        <v>3612400</v>
       </c>
       <c r="H76" s="3">
-        <v>4691200</v>
+        <v>3570700</v>
       </c>
       <c r="I76" s="3">
+        <v>5063000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4914500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4505700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4279000</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3123,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>85700</v>
+      <c r="D81" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="3">
-        <v>141900</v>
+        <v>-94000</v>
       </c>
       <c r="F81" s="3">
-        <v>363200</v>
+        <v>89800</v>
       </c>
       <c r="G81" s="3">
-        <v>163100</v>
+        <v>148600</v>
       </c>
       <c r="H81" s="3">
-        <v>163700</v>
+        <v>380500</v>
       </c>
       <c r="I81" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>171500</v>
+      </c>
+      <c r="K81" s="3">
         <v>199400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>166300</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3224,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>56900</v>
+        <v>61500</v>
       </c>
       <c r="E83" s="3">
-        <v>56900</v>
+        <v>62900</v>
       </c>
       <c r="F83" s="3">
-        <v>55300</v>
+        <v>59600</v>
       </c>
       <c r="G83" s="3">
-        <v>78000</v>
+        <v>59600</v>
       </c>
       <c r="H83" s="3">
-        <v>77000</v>
+        <v>57900</v>
       </c>
       <c r="I83" s="3">
+        <v>81700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>80700</v>
+      </c>
+      <c r="K83" s="3">
         <v>73900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>74800</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3296,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3334,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3372,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3410,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3448,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-279700</v>
+        <v>158900</v>
       </c>
       <c r="E89" s="3">
-        <v>1242300</v>
+        <v>-915300</v>
       </c>
       <c r="F89" s="3">
-        <v>-428200</v>
+        <v>-293000</v>
       </c>
       <c r="G89" s="3">
-        <v>433500</v>
+        <v>1301400</v>
       </c>
       <c r="H89" s="3">
-        <v>-20700</v>
+        <v>-448600</v>
       </c>
       <c r="I89" s="3">
+        <v>454200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="K89" s="3">
         <v>505500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>321100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,40 +3506,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31500</v>
+        <v>-205678000</v>
       </c>
       <c r="E91" s="3">
-        <v>-22700</v>
+        <v>-482508000</v>
       </c>
       <c r="F91" s="3">
-        <v>-12100</v>
+        <v>-281054000</v>
       </c>
       <c r="G91" s="3">
-        <v>-62500</v>
+        <v>-238582000</v>
       </c>
       <c r="H91" s="3">
-        <v>-36500</v>
+        <v>-143769000</v>
       </c>
       <c r="I91" s="3">
+        <v>-489803000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-299606000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-24200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-16300</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3578,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3616,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>290500</v>
+        <v>574600</v>
       </c>
       <c r="E94" s="3">
-        <v>38700</v>
+        <v>607000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3641200</v>
+        <v>304300</v>
       </c>
       <c r="G94" s="3">
-        <v>-457500</v>
+        <v>40500</v>
       </c>
       <c r="H94" s="3">
-        <v>64100</v>
+        <v>-3814600</v>
       </c>
       <c r="I94" s="3">
+        <v>-479300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>67100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-178900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-814100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,40 +3674,48 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E96" s="3">
-        <v>-23100</v>
+        <v>-400</v>
       </c>
       <c r="F96" s="3">
-        <v>-63000</v>
+        <v>-600</v>
       </c>
       <c r="G96" s="3">
-        <v>-63100</v>
+        <v>-24200</v>
       </c>
       <c r="H96" s="3">
-        <v>-63000</v>
+        <v>-66000</v>
       </c>
       <c r="I96" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-62900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-69500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3746,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3784,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,100 +3822,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-996800</v>
+        <v>-144200</v>
       </c>
       <c r="E100" s="3">
-        <v>-223000</v>
+        <v>-525400</v>
       </c>
       <c r="F100" s="3">
-        <v>-78500</v>
+        <v>-1044300</v>
       </c>
       <c r="G100" s="3">
-        <v>-16200</v>
+        <v>-233600</v>
       </c>
       <c r="H100" s="3">
-        <v>-55000</v>
+        <v>-82300</v>
       </c>
       <c r="I100" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-229100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>17700</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>266400</v>
+        <v>-84400</v>
       </c>
       <c r="E101" s="3">
+        <v>617800</v>
+      </c>
+      <c r="F101" s="3">
+        <v>279100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
-        <v>-101600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>197800</v>
-      </c>
       <c r="H101" s="3">
-        <v>70200</v>
+        <v>-106400</v>
       </c>
       <c r="I101" s="3">
+        <v>207200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>73500</v>
+      </c>
+      <c r="K101" s="3">
         <v>3600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>707700</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-719700</v>
+        <v>504900</v>
       </c>
       <c r="E102" s="3">
-        <v>1057100</v>
+        <v>-215800</v>
       </c>
       <c r="F102" s="3">
-        <v>-4249500</v>
+        <v>-754000</v>
       </c>
       <c r="G102" s="3">
-        <v>157600</v>
+        <v>1107500</v>
       </c>
       <c r="H102" s="3">
-        <v>58500</v>
+        <v>-4451900</v>
       </c>
       <c r="I102" s="3">
+        <v>165100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>61300</v>
+      </c>
+      <c r="K102" s="3">
         <v>101100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>232400</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>AVAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,106 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>1717100</v>
       </c>
       <c r="E8" s="3">
-        <v>1351600</v>
+        <v>1682000</v>
       </c>
       <c r="F8" s="3">
-        <v>1146900</v>
+        <v>1474500</v>
       </c>
       <c r="G8" s="3">
-        <v>943100</v>
+        <v>1251100</v>
       </c>
       <c r="H8" s="3">
-        <v>827200</v>
+        <v>1028800</v>
       </c>
       <c r="I8" s="3">
-        <v>530400</v>
+        <v>902300</v>
       </c>
       <c r="J8" s="3">
+        <v>578700</v>
+      </c>
+      <c r="K8" s="3">
         <v>707300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>660300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>653500</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,8 +801,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,8 +842,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,8 +861,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +900,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,8 +941,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,52 +976,58 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>-67800</v>
       </c>
       <c r="E15" s="3">
-        <v>-62900</v>
+        <v>-67100</v>
       </c>
       <c r="F15" s="3">
-        <v>-59600</v>
+        <v>-68600</v>
       </c>
       <c r="G15" s="3">
-        <v>-59600</v>
+        <v>-65000</v>
       </c>
       <c r="H15" s="3">
-        <v>-57900</v>
+        <v>-65000</v>
       </c>
       <c r="I15" s="3">
-        <v>-57400</v>
+        <v>-63200</v>
       </c>
       <c r="J15" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-57200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-52400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-52900</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,84 +1039,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>1576200</v>
       </c>
       <c r="E17" s="3">
-        <v>1106900</v>
+        <v>1499000</v>
       </c>
       <c r="F17" s="3">
-        <v>851900</v>
+        <v>1207500</v>
       </c>
       <c r="G17" s="3">
-        <v>633400</v>
+        <v>929400</v>
       </c>
       <c r="H17" s="3">
-        <v>522400</v>
+        <v>691000</v>
       </c>
       <c r="I17" s="3">
-        <v>230800</v>
+        <v>569900</v>
       </c>
       <c r="J17" s="3">
+        <v>251700</v>
+      </c>
+      <c r="K17" s="3">
         <v>364100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>387300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>404100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>140900</v>
       </c>
       <c r="E18" s="3">
-        <v>244700</v>
+        <v>183000</v>
       </c>
       <c r="F18" s="3">
-        <v>294900</v>
+        <v>266900</v>
       </c>
       <c r="G18" s="3">
-        <v>309700</v>
+        <v>321700</v>
       </c>
       <c r="H18" s="3">
-        <v>304700</v>
+        <v>337800</v>
       </c>
       <c r="I18" s="3">
-        <v>299700</v>
+        <v>332400</v>
       </c>
       <c r="J18" s="3">
+        <v>326900</v>
+      </c>
+      <c r="K18" s="3">
         <v>343200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>273000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>249400</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,84 +1138,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>53700</v>
       </c>
       <c r="E20" s="3">
-        <v>-62000</v>
+        <v>196200</v>
       </c>
       <c r="F20" s="3">
-        <v>30100</v>
+        <v>-67700</v>
       </c>
       <c r="G20" s="3">
-        <v>119400</v>
+        <v>32900</v>
       </c>
       <c r="H20" s="3">
-        <v>138800</v>
+        <v>130300</v>
       </c>
       <c r="I20" s="3">
-        <v>-29900</v>
+        <v>151400</v>
       </c>
       <c r="J20" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="K20" s="3">
         <v>58500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>91300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>81900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>262500</v>
       </c>
       <c r="E21" s="3">
-        <v>245500</v>
+        <v>446300</v>
       </c>
       <c r="F21" s="3">
-        <v>384600</v>
+        <v>267800</v>
       </c>
       <c r="G21" s="3">
-        <v>488600</v>
+        <v>419600</v>
       </c>
       <c r="H21" s="3">
-        <v>501500</v>
+        <v>533100</v>
       </c>
       <c r="I21" s="3">
-        <v>351500</v>
+        <v>547100</v>
       </c>
       <c r="J21" s="3">
+        <v>383500</v>
+      </c>
+      <c r="K21" s="3">
         <v>482300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>438200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>406100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1214,90 +1253,99 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>347600</v>
+        <v>194700</v>
       </c>
       <c r="E23" s="3">
-        <v>182600</v>
+        <v>379200</v>
       </c>
       <c r="F23" s="3">
-        <v>325100</v>
+        <v>199300</v>
       </c>
       <c r="G23" s="3">
-        <v>429100</v>
+        <v>354600</v>
       </c>
       <c r="H23" s="3">
-        <v>443600</v>
+        <v>468100</v>
       </c>
       <c r="I23" s="3">
-        <v>269800</v>
+        <v>483900</v>
       </c>
       <c r="J23" s="3">
+        <v>294300</v>
+      </c>
+      <c r="K23" s="3">
         <v>401700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>364300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>331300</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117200</v>
+        <v>84100</v>
       </c>
       <c r="E24" s="3">
-        <v>115800</v>
+        <v>127800</v>
       </c>
       <c r="F24" s="3">
-        <v>120500</v>
+        <v>126300</v>
       </c>
       <c r="G24" s="3">
-        <v>124100</v>
+        <v>131500</v>
       </c>
       <c r="H24" s="3">
-        <v>139200</v>
+        <v>135400</v>
       </c>
       <c r="I24" s="3">
-        <v>83500</v>
+        <v>151900</v>
       </c>
       <c r="J24" s="3">
+        <v>91000</v>
+      </c>
+      <c r="K24" s="3">
         <v>222600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>92500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>103300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,84 +1382,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>110500</v>
       </c>
       <c r="E26" s="3">
-        <v>66900</v>
+        <v>251300</v>
       </c>
       <c r="F26" s="3">
-        <v>204500</v>
+        <v>72900</v>
       </c>
       <c r="G26" s="3">
-        <v>304900</v>
+        <v>223100</v>
       </c>
       <c r="H26" s="3">
-        <v>304300</v>
+        <v>332700</v>
       </c>
       <c r="I26" s="3">
-        <v>186300</v>
+        <v>332000</v>
       </c>
       <c r="J26" s="3">
+        <v>203300</v>
+      </c>
+      <c r="K26" s="3">
         <v>179100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>271800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>228000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>39900</v>
       </c>
       <c r="E27" s="3">
-        <v>87700</v>
+        <v>102000</v>
       </c>
       <c r="F27" s="3">
-        <v>89800</v>
+        <v>95700</v>
       </c>
       <c r="G27" s="3">
-        <v>148600</v>
+        <v>97900</v>
       </c>
       <c r="H27" s="3">
-        <v>139000</v>
+        <v>162100</v>
       </c>
       <c r="I27" s="3">
-        <v>33900</v>
+        <v>151600</v>
       </c>
       <c r="J27" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K27" s="3">
         <v>111600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>138700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>204000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,46 +1505,52 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-181700</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-198200</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>241600</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-66900</v>
+        <v>263500</v>
       </c>
       <c r="J29" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="K29" s="3">
         <v>59900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>60700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-37700</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1587,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,84 +1628,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-53700</v>
       </c>
       <c r="E32" s="3">
-        <v>62000</v>
+        <v>-196200</v>
       </c>
       <c r="F32" s="3">
-        <v>-30100</v>
+        <v>67700</v>
       </c>
       <c r="G32" s="3">
-        <v>-119400</v>
+        <v>-32900</v>
       </c>
       <c r="H32" s="3">
-        <v>-138800</v>
+        <v>-130300</v>
       </c>
       <c r="I32" s="3">
-        <v>29900</v>
+        <v>-151400</v>
       </c>
       <c r="J32" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-58500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-91300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-81900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>39900</v>
       </c>
       <c r="E33" s="3">
-        <v>-94000</v>
+        <v>102000</v>
       </c>
       <c r="F33" s="3">
-        <v>89800</v>
+        <v>-102500</v>
       </c>
       <c r="G33" s="3">
-        <v>148600</v>
+        <v>97900</v>
       </c>
       <c r="H33" s="3">
-        <v>380500</v>
+        <v>162100</v>
       </c>
       <c r="I33" s="3">
-        <v>-33000</v>
+        <v>415100</v>
       </c>
       <c r="J33" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="K33" s="3">
         <v>171500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>166300</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,89 +1751,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>39900</v>
       </c>
       <c r="E35" s="3">
-        <v>-94000</v>
+        <v>102000</v>
       </c>
       <c r="F35" s="3">
-        <v>89800</v>
+        <v>-102500</v>
       </c>
       <c r="G35" s="3">
-        <v>148600</v>
+        <v>97900</v>
       </c>
       <c r="H35" s="3">
-        <v>380500</v>
+        <v>162100</v>
       </c>
       <c r="I35" s="3">
-        <v>-33000</v>
+        <v>415100</v>
       </c>
       <c r="J35" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="K35" s="3">
         <v>171500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>166300</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1857,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,84 +1874,91 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4252100</v>
+        <v>4607000</v>
       </c>
       <c r="E41" s="3">
-        <v>3747200</v>
+        <v>4638700</v>
       </c>
       <c r="F41" s="3">
-        <v>3963100</v>
+        <v>4087900</v>
       </c>
       <c r="G41" s="3">
-        <v>4717000</v>
+        <v>4323300</v>
       </c>
       <c r="H41" s="3">
-        <v>3609600</v>
+        <v>5145900</v>
       </c>
       <c r="I41" s="3">
-        <v>8061400</v>
+        <v>3937700</v>
       </c>
       <c r="J41" s="3">
+        <v>8794300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7896300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7478900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7377700</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10029700</v>
+        <v>11077200</v>
       </c>
       <c r="E42" s="3">
-        <v>10018100</v>
+        <v>10941500</v>
       </c>
       <c r="F42" s="3">
-        <v>9702500</v>
+        <v>10928800</v>
       </c>
       <c r="G42" s="3">
-        <v>9378200</v>
+        <v>10584600</v>
       </c>
       <c r="H42" s="3">
-        <v>9119200</v>
+        <v>10230700</v>
       </c>
       <c r="I42" s="3">
-        <v>12253000</v>
+        <v>9948200</v>
       </c>
       <c r="J42" s="3">
+        <v>13366900</v>
+      </c>
+      <c r="K42" s="3">
         <v>11815200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11196400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>10964900</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +1995,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,8 +2036,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1979,8 +2077,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2017,122 +2118,134 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>262100</v>
+        <v>290700</v>
       </c>
       <c r="E47" s="3">
-        <v>313100</v>
+        <v>285900</v>
       </c>
       <c r="F47" s="3">
-        <v>1208600</v>
+        <v>341600</v>
       </c>
       <c r="G47" s="3">
-        <v>1074000</v>
+        <v>1318500</v>
       </c>
       <c r="H47" s="3">
-        <v>958500</v>
+        <v>1171700</v>
       </c>
       <c r="I47" s="3">
-        <v>258000</v>
+        <v>1045700</v>
       </c>
       <c r="J47" s="3">
+        <v>281500</v>
+      </c>
+      <c r="K47" s="3">
         <v>236900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>222000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>203600</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1594500</v>
+        <v>1707300</v>
       </c>
       <c r="E48" s="3">
-        <v>1591800</v>
+        <v>1739500</v>
       </c>
       <c r="F48" s="3">
-        <v>1567700</v>
+        <v>1736500</v>
       </c>
       <c r="G48" s="3">
-        <v>1549600</v>
+        <v>1710200</v>
       </c>
       <c r="H48" s="3">
-        <v>1540800</v>
+        <v>1690500</v>
       </c>
       <c r="I48" s="3">
-        <v>2002100</v>
+        <v>1680800</v>
       </c>
       <c r="J48" s="3">
+        <v>2184100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1943400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1863500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1891300</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3927200</v>
+        <v>4308000</v>
       </c>
       <c r="E49" s="3">
-        <v>3856800</v>
+        <v>4284300</v>
       </c>
       <c r="F49" s="3">
-        <v>3693600</v>
+        <v>4207500</v>
       </c>
       <c r="G49" s="3">
-        <v>3528000</v>
+        <v>4029400</v>
       </c>
       <c r="H49" s="3">
-        <v>3354200</v>
+        <v>3848700</v>
       </c>
       <c r="I49" s="3">
-        <v>4723600</v>
+        <v>3659200</v>
       </c>
       <c r="J49" s="3">
+        <v>5153000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4526400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4199400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4064600</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2282,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,46 +2323,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22000</v>
+        <v>28200</v>
       </c>
       <c r="E52" s="3">
-        <v>427700</v>
+        <v>24000</v>
       </c>
       <c r="F52" s="3">
-        <v>30300</v>
+        <v>466600</v>
       </c>
       <c r="G52" s="3">
-        <v>31900</v>
+        <v>33000</v>
       </c>
       <c r="H52" s="3">
-        <v>32400</v>
+        <v>34800</v>
       </c>
       <c r="I52" s="3">
-        <v>434200</v>
+        <v>35300</v>
       </c>
       <c r="J52" s="3">
+        <v>473700</v>
+      </c>
+      <c r="K52" s="3">
         <v>31700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>26300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>52600</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,46 +2405,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65753200</v>
+        <v>71534800</v>
       </c>
       <c r="E54" s="3">
-        <v>65030100</v>
+        <v>71730800</v>
       </c>
       <c r="F54" s="3">
-        <v>62897200</v>
+        <v>70941900</v>
       </c>
       <c r="G54" s="3">
-        <v>60744400</v>
+        <v>68615100</v>
       </c>
       <c r="H54" s="3">
-        <v>57447300</v>
+        <v>66266600</v>
       </c>
       <c r="I54" s="3">
-        <v>80718900</v>
+        <v>62669800</v>
       </c>
       <c r="J54" s="3">
+        <v>88056900</v>
+      </c>
+      <c r="K54" s="3">
         <v>77375100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72292900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70751400</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2465,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,46 +2482,50 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>656900</v>
       </c>
       <c r="E57" s="3">
-        <v>616800</v>
+        <v>662300</v>
       </c>
       <c r="F57" s="3">
-        <v>563300</v>
+        <v>672900</v>
       </c>
       <c r="G57" s="3">
-        <v>561700</v>
+        <v>614500</v>
       </c>
       <c r="H57" s="3">
-        <v>522400</v>
+        <v>612800</v>
       </c>
       <c r="I57" s="3">
-        <v>710200</v>
+        <v>569900</v>
       </c>
       <c r="J57" s="3">
+        <v>774800</v>
+      </c>
+      <c r="K57" s="3">
         <v>641300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>596400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>572900</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2429,46 +2562,52 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1224100</v>
+        <v>1830300</v>
       </c>
       <c r="E59" s="3">
-        <v>205600</v>
+        <v>1964500</v>
       </c>
       <c r="F59" s="3">
-        <v>1286700</v>
+        <v>224300</v>
       </c>
       <c r="G59" s="3">
-        <v>1207500</v>
+        <v>1403700</v>
       </c>
       <c r="H59" s="3">
-        <v>1190300</v>
+        <v>1317200</v>
       </c>
       <c r="I59" s="3">
-        <v>355100</v>
+        <v>1298500</v>
       </c>
       <c r="J59" s="3">
+        <v>387400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1382400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1246800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1332200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2505,84 +2644,93 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15408500</v>
+        <v>12831400</v>
       </c>
       <c r="E61" s="3">
-        <v>13866300</v>
+        <v>14697300</v>
       </c>
       <c r="F61" s="3">
-        <v>12991700</v>
+        <v>15126900</v>
       </c>
       <c r="G61" s="3">
-        <v>12793800</v>
+        <v>14172800</v>
       </c>
       <c r="H61" s="3">
-        <v>11356900</v>
+        <v>13956900</v>
       </c>
       <c r="I61" s="3">
-        <v>13774200</v>
+        <v>12389300</v>
       </c>
       <c r="J61" s="3">
+        <v>15026400</v>
+      </c>
+      <c r="K61" s="3">
         <v>12193300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11352000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11073300</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>446400</v>
+        <v>363800</v>
       </c>
       <c r="E62" s="3">
-        <v>1486000</v>
+        <v>385000</v>
       </c>
       <c r="F62" s="3">
-        <v>344000</v>
+        <v>1621000</v>
       </c>
       <c r="G62" s="3">
-        <v>342400</v>
+        <v>375300</v>
       </c>
       <c r="H62" s="3">
-        <v>361100</v>
+        <v>373500</v>
       </c>
       <c r="I62" s="3">
-        <v>1340400</v>
+        <v>393900</v>
       </c>
       <c r="J62" s="3">
+        <v>1462300</v>
+      </c>
+      <c r="K62" s="3">
         <v>348700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>332700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>339500</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2767,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2808,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,46 +2849,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>62194500</v>
+        <v>67583100</v>
       </c>
       <c r="E66" s="3">
-        <v>61407300</v>
+        <v>67848600</v>
       </c>
       <c r="F66" s="3">
-        <v>59208500</v>
+        <v>66989800</v>
       </c>
       <c r="G66" s="3">
-        <v>57132000</v>
+        <v>64591100</v>
       </c>
       <c r="H66" s="3">
-        <v>53876600</v>
+        <v>62325900</v>
       </c>
       <c r="I66" s="3">
-        <v>75655900</v>
+        <v>58774500</v>
       </c>
       <c r="J66" s="3">
+        <v>82533700</v>
+      </c>
+      <c r="K66" s="3">
         <v>72460600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>67787200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>66472500</v>
       </c>
-      <c r="M66" s="3">
-        <v>0</v>
-      </c>
       <c r="N66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2909,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2948,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2989,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3030,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,46 +3071,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1634300</v>
+        <v>1820300</v>
       </c>
       <c r="E72" s="3">
-        <v>1764100</v>
+        <v>1782800</v>
       </c>
       <c r="F72" s="3">
-        <v>1837200</v>
+        <v>1924400</v>
       </c>
       <c r="G72" s="3">
-        <v>1747700</v>
+        <v>2004200</v>
       </c>
       <c r="H72" s="3">
-        <v>1863400</v>
+        <v>1906600</v>
       </c>
       <c r="I72" s="3">
-        <v>2944300</v>
+        <v>2032800</v>
       </c>
       <c r="J72" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2777700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2486200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2287600</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
-      </c>
       <c r="N72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3153,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3194,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,46 +3235,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3558700</v>
+        <v>3951700</v>
       </c>
       <c r="E76" s="3">
-        <v>3622700</v>
+        <v>3882200</v>
       </c>
       <c r="F76" s="3">
-        <v>3688600</v>
+        <v>3952100</v>
       </c>
       <c r="G76" s="3">
-        <v>3612400</v>
+        <v>4024000</v>
       </c>
       <c r="H76" s="3">
-        <v>3570700</v>
+        <v>3940800</v>
       </c>
       <c r="I76" s="3">
-        <v>5063000</v>
+        <v>3895300</v>
       </c>
       <c r="J76" s="3">
+        <v>5523300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4914500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4505700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4279000</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
       <c r="N76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,89 +3317,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>39900</v>
       </c>
       <c r="E81" s="3">
-        <v>-94000</v>
+        <v>102000</v>
       </c>
       <c r="F81" s="3">
-        <v>89800</v>
+        <v>-102500</v>
       </c>
       <c r="G81" s="3">
-        <v>148600</v>
+        <v>97900</v>
       </c>
       <c r="H81" s="3">
-        <v>380500</v>
+        <v>162100</v>
       </c>
       <c r="I81" s="3">
-        <v>-33000</v>
+        <v>415100</v>
       </c>
       <c r="J81" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="K81" s="3">
         <v>171500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>166300</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,46 +3423,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>61500</v>
+        <v>67800</v>
       </c>
       <c r="E83" s="3">
-        <v>62900</v>
+        <v>67100</v>
       </c>
       <c r="F83" s="3">
-        <v>59600</v>
+        <v>68600</v>
       </c>
       <c r="G83" s="3">
-        <v>59600</v>
+        <v>65000</v>
       </c>
       <c r="H83" s="3">
-        <v>57900</v>
+        <v>65000</v>
       </c>
       <c r="I83" s="3">
-        <v>81700</v>
+        <v>63200</v>
       </c>
       <c r="J83" s="3">
+        <v>89100</v>
+      </c>
+      <c r="K83" s="3">
         <v>80700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>73900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>74800</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3503,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3544,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3585,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3626,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,46 +3667,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>158900</v>
+        <v>297600</v>
       </c>
       <c r="E89" s="3">
-        <v>-915300</v>
+        <v>173300</v>
       </c>
       <c r="F89" s="3">
-        <v>-293000</v>
+        <v>-998500</v>
       </c>
       <c r="G89" s="3">
-        <v>1301400</v>
+        <v>-319700</v>
       </c>
       <c r="H89" s="3">
-        <v>-448600</v>
+        <v>1419700</v>
       </c>
       <c r="I89" s="3">
-        <v>454200</v>
+        <v>-489300</v>
       </c>
       <c r="J89" s="3">
+        <v>495500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-21700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>505500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>321100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,46 +3727,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-257519000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-205678000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-482508000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-281054000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-238582000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-143769000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-489803000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-299606000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-24200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3807,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,46 +3848,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>574600</v>
+        <v>55000</v>
       </c>
       <c r="E94" s="3">
-        <v>607000</v>
+        <v>626900</v>
       </c>
       <c r="F94" s="3">
-        <v>304300</v>
+        <v>662200</v>
       </c>
       <c r="G94" s="3">
-        <v>40500</v>
+        <v>332000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3814600</v>
+        <v>44200</v>
       </c>
       <c r="I94" s="3">
-        <v>-479300</v>
+        <v>-4161400</v>
       </c>
       <c r="J94" s="3">
+        <v>-522800</v>
+      </c>
+      <c r="K94" s="3">
         <v>67100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-178900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-814100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,46 +3908,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-300</v>
+        <v>-61200</v>
       </c>
       <c r="E96" s="3">
         <v>-400</v>
       </c>
       <c r="F96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-24200</v>
-      </c>
       <c r="H96" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-66000</v>
       </c>
-      <c r="I96" s="3">
-        <v>-66100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-66000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-62900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-69500</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3988,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4029,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,118 +4070,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-144200</v>
+        <v>-210300</v>
       </c>
       <c r="E100" s="3">
-        <v>-525400</v>
+        <v>-157400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1044300</v>
+        <v>-573100</v>
       </c>
       <c r="G100" s="3">
-        <v>-233600</v>
+        <v>-1139200</v>
       </c>
       <c r="H100" s="3">
-        <v>-82300</v>
+        <v>-254900</v>
       </c>
       <c r="I100" s="3">
-        <v>-17000</v>
+        <v>-89700</v>
       </c>
       <c r="J100" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-57600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-229100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>17700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-84400</v>
+        <v>-174000</v>
       </c>
       <c r="E101" s="3">
-        <v>617800</v>
+        <v>-92100</v>
       </c>
       <c r="F101" s="3">
-        <v>279100</v>
+        <v>673900</v>
       </c>
       <c r="G101" s="3">
-        <v>-800</v>
+        <v>304400</v>
       </c>
       <c r="H101" s="3">
-        <v>-106400</v>
+        <v>-900</v>
       </c>
       <c r="I101" s="3">
-        <v>207200</v>
+        <v>-116100</v>
       </c>
       <c r="J101" s="3">
+        <v>226000</v>
+      </c>
+      <c r="K101" s="3">
         <v>73500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>707700</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>504900</v>
+        <v>-31700</v>
       </c>
       <c r="E102" s="3">
-        <v>-215800</v>
+        <v>550800</v>
       </c>
       <c r="F102" s="3">
-        <v>-754000</v>
+        <v>-235500</v>
       </c>
       <c r="G102" s="3">
-        <v>1107500</v>
+        <v>-822500</v>
       </c>
       <c r="H102" s="3">
-        <v>-4451900</v>
+        <v>1208200</v>
       </c>
       <c r="I102" s="3">
-        <v>165100</v>
+        <v>-4856600</v>
       </c>
       <c r="J102" s="3">
+        <v>180100</v>
+      </c>
+      <c r="K102" s="3">
         <v>61300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>101100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>232400</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AVAL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>AVAL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,112 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1760300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1717100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1682000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1474500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1251100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1028800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>902300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>578700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>707300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>660300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>653500</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,8 +810,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,8 +854,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,8 +874,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,8 +916,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,8 +960,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -979,55 +998,61 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-69100</v>
+      </c>
+      <c r="E15" s="3">
         <v>-67800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-67100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-68600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-65000</v>
       </c>
       <c r="H15" s="3">
         <v>-65000</v>
       </c>
       <c r="I15" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="J15" s="3">
         <v>-63200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-62600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-57200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-52400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-52900</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1040,90 +1065,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1649900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1576200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1499000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1207500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>929400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>691000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>569900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>364100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>387300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>404100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>110400</v>
+      </c>
+      <c r="E18" s="3">
         <v>140900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>183000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>266900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>321700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>337800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>332400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>326900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>343200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>273000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>249400</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1139,90 +1171,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>53700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>196200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-67700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>32900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>130300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>151400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-32600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>58500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>91300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>81900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>183500</v>
+      </c>
+      <c r="E21" s="3">
         <v>262500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>446300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>267800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>419600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>533100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>547100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>383500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>482300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>438200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>406100</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1256,96 +1295,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E23" s="3">
         <v>194700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>379200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>199300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>354600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>468100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>483900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>294300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>401700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>364300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>331300</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E24" s="3">
         <v>84100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>127800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>126300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>131500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>135400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>151900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>91000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>222600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>92500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>103300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1385,90 +1433,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E26" s="3">
         <v>110500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>251300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>223100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>332700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>332000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>203300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>271800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>228000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>39900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>102000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>95700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>97900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>162100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>151600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>37000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>138700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>204000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1508,49 +1565,55 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3">
         <v>-198200</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>263500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-73000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>59900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>60700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-37700</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1590,8 +1653,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1631,90 +1697,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-53700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-196200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>67700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-32900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-130300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-151400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>32600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-58500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-91300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-81900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>39900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>102000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-102500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>97900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>162100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>415100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-36100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>171500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>199400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>166300</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1754,95 +1829,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>39900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>102000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-102500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>97900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>162100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>415100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-36100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>171500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>199400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>166300</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,8 +1942,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1875,90 +1960,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4411700</v>
+      </c>
+      <c r="E41" s="3">
         <v>4607000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4638700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4087900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4323300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5145900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3937700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8794300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7896300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7478900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7377700</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>11203700</v>
+      </c>
+      <c r="E42" s="3">
         <v>11077200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>10941500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>10928800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>10584600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>10230700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>9948200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13366900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>11815200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>11196400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>10964900</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1998,8 +2090,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2039,8 +2134,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2080,8 +2178,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2121,131 +2222,143 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300100</v>
+      </c>
+      <c r="E47" s="3">
         <v>290700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>285900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>341600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1318500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1171700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1045700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>281500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>236900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>222000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>203600</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1689300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1707300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1739500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1736500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1710200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1690500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1680800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2184100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1943400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1863500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1891300</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4330700</v>
+      </c>
+      <c r="E49" s="3">
         <v>4308000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4284300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4207500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4029400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3848700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3659200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5153000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4526400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4199400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4064600</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2285,8 +2398,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2326,49 +2442,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E52" s="3">
         <v>28200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>466600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>34800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>35300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>473700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>31700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>26300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>52600</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2408,49 +2530,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71695800</v>
+      </c>
+      <c r="E54" s="3">
         <v>71534800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71730800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70941900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>68615100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>66266600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>62669800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>88056900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77375100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72292900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70751400</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2466,8 +2594,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2483,49 +2612,53 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>658900</v>
+      </c>
+      <c r="E57" s="3">
         <v>656900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>662300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>672900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>614500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>612800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>569900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>774800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>641300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>596400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>572900</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2565,49 +2698,55 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1742500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1830300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1964500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>224300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1403700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1317200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1298500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>387400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1382400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1246800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1332200</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2647,90 +2786,99 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>12757700</v>
+      </c>
+      <c r="E61" s="3">
         <v>12831400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>14697300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>15126900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>14172800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13956900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>12389300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>15026400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12193300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11352000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11073300</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>353700</v>
+      </c>
+      <c r="E62" s="3">
         <v>363800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>385000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1621000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>375300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>373500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>393900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1462300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>348700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>332700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>339500</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2770,8 +2918,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2811,8 +2962,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2852,49 +3006,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>67764200</v>
+      </c>
+      <c r="E66" s="3">
         <v>67583100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>67848600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>66989800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>64591100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>62325900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>58774500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>82533700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>72460600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>67787200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>66472500</v>
       </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
       <c r="O66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2910,8 +3070,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2951,8 +3112,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2992,8 +3156,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3033,8 +3200,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3074,49 +3244,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1834000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1820300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1782800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1924400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2004200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1906600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2032800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>3212000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2777700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2486200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2287600</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
-      </c>
       <c r="O72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3156,8 +3332,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3197,8 +3376,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3238,49 +3420,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3931600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3951700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3882200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3952100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4024000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3940800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3895300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5523300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4914500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4505700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4279000</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
       <c r="O76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3320,95 +3508,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>39900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>102000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-102500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>97900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>162100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>415100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-36100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>171500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>199400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>166300</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3424,49 +3621,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E83" s="3">
         <v>67800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>68600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>65000</v>
       </c>
       <c r="H83" s="3">
         <v>65000</v>
       </c>
       <c r="I83" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J83" s="3">
         <v>63200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>80700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>73900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>74800</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3506,8 +3707,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3547,8 +3751,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3588,8 +3795,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3629,8 +3839,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3670,49 +3883,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>292200</v>
+      </c>
+      <c r="E89" s="3">
         <v>297600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>173300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-998500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-319700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1419700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-489300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>495500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-21700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>505500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>321100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3728,49 +3947,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-394006000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-257519000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-205678000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-482508000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-281054000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-238582000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-143769000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-489803000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-299606000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-24200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3810,8 +4033,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3851,49 +4077,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-222200</v>
+      </c>
+      <c r="E94" s="3">
         <v>55000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>626900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>662200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>332000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>44200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4161400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-522800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>67100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-178900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-814100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3909,8 +4141,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3918,40 +4151,43 @@
         <v>-61200</v>
       </c>
       <c r="E96" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="F96" s="3">
         <v>-400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-26400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-72000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-72100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-66000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-62900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-69500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3991,8 +4227,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4032,8 +4271,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4073,127 +4315,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-232700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-210300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-157400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-573100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1139200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-254900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-89700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-57600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-229100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>17700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-174000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-92100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>673900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>304400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-116100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>226000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>73500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>707700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-195200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-31700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>550800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-235500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-822500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1208200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4856600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>180100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>61300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>101100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>232400</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>
